--- a/프로젝트개발일정계획표.xlsx
+++ b/프로젝트개발일정계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050002\Documents\workspace\3week_project_android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8424AE-4C34-4076-8BC0-EFEF5954DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710DB29B-20A7-4627-A80F-6857CE605CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,15 +124,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>db설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유스케이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,151 +629,145 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,142 +1158,142 @@
       </c>
     </row>
     <row r="2" spans="2:205" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="2:205" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
     </row>
     <row r="5" spans="2:205" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="23" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="43"/>
     </row>
     <row r="6" spans="2:205" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="16" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17" t="str">
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="31" t="str">
         <f>IF(SUM(R9:R23)=0, "", SUM(R9:R23))</f>
         <v/>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="18"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="42"/>
     </row>
     <row r="7" spans="2:205" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="24"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
     </row>
     <row r="8" spans="2:205" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="21"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1312,10 +1306,10 @@
       <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1337,10 +1331,10 @@
       <c r="Q8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="24"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="37"/>
     </row>
     <row r="9" spans="2:205" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8"/>
@@ -1350,8 +1344,8 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1360,8 +1354,8 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
       <c r="U9" s="9"/>
     </row>
     <row r="10" spans="2:205" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1372,8 +1366,8 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1382,8 +1376,8 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
       <c r="U10" s="9"/>
     </row>
     <row r="11" spans="2:205" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1394,8 +1388,8 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1404,8 +1398,8 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="2:205" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1416,8 +1410,8 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1426,8 +1420,8 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
       <c r="U12" s="9"/>
     </row>
     <row r="13" spans="2:205" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1438,8 +1432,8 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1448,8 +1442,8 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:205" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1460,8 +1454,8 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -1470,8 +1464,8 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:205" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1482,8 +1476,8 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -1492,8 +1486,8 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="2:205" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1504,8 +1498,8 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -1514,8 +1508,8 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
       <c r="U16" s="9"/>
     </row>
     <row r="17" spans="2:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1526,8 +1520,8 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -1536,8 +1530,8 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
       <c r="U17" s="9"/>
     </row>
     <row r="18" spans="2:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1548,8 +1542,8 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -1558,8 +1552,8 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
       <c r="U18" s="9"/>
     </row>
     <row r="19" spans="2:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1570,8 +1564,8 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -1580,8 +1574,8 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
       <c r="U19" s="9"/>
     </row>
     <row r="20" spans="2:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1592,8 +1586,8 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -1602,8 +1596,8 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
       <c r="U20" s="9"/>
     </row>
     <row r="21" spans="2:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1614,8 +1608,8 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -1624,8 +1618,8 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1636,8 +1630,8 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -1646,8 +1640,8 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
       <c r="U22" s="9"/>
     </row>
     <row r="23" spans="2:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1658,8 +1652,8 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
@@ -1668,36 +1662,26 @@
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="13"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
       <c r="U23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B2:U3"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="N5:U5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="E7:Q7"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
@@ -1709,20 +1693,30 @@
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="R7:R8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="E7:Q7"/>
-    <mergeCell ref="B2:U3"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="N5:U5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="S21:T21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1737,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EB7D23-D8BA-42C9-A8D0-DA1E2F3BFE99}">
-  <dimension ref="B1:AO13"/>
+  <dimension ref="B1:AO7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1750,332 +1744,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="26"/>
+    </row>
+    <row r="2" spans="2:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="56"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="27"/>
+    </row>
+    <row r="3" spans="2:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="57"/>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23">
+        <v>3</v>
+      </c>
+      <c r="F3" s="23">
+        <v>4</v>
+      </c>
+      <c r="G3" s="23">
+        <v>5</v>
+      </c>
+      <c r="H3" s="23">
+        <v>6</v>
+      </c>
+      <c r="I3" s="23">
+        <v>7</v>
+      </c>
+      <c r="J3" s="23">
+        <v>8</v>
+      </c>
+      <c r="K3" s="23">
+        <v>9</v>
+      </c>
+      <c r="L3" s="23">
+        <v>10</v>
+      </c>
+      <c r="M3" s="23">
+        <v>11</v>
+      </c>
+      <c r="N3" s="23">
+        <v>12</v>
+      </c>
+      <c r="O3" s="23">
+        <v>13</v>
+      </c>
+      <c r="P3" s="23">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>15</v>
+      </c>
+      <c r="R3" s="23">
+        <v>16</v>
+      </c>
+      <c r="S3" s="23">
+        <v>17</v>
+      </c>
+      <c r="T3" s="23">
+        <v>18</v>
+      </c>
+      <c r="U3" s="28">
+        <v>19</v>
+      </c>
+      <c r="V3" s="23">
+        <v>20</v>
+      </c>
+      <c r="W3" s="23">
+        <v>21</v>
+      </c>
+      <c r="X3" s="23">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="23">
         <v>25</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="49"/>
-    </row>
-    <row r="2" spans="2:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="53"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50"/>
-    </row>
-    <row r="3" spans="2:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="46">
-        <v>1</v>
-      </c>
-      <c r="D3" s="46">
-        <v>2</v>
-      </c>
-      <c r="E3" s="46">
-        <v>3</v>
-      </c>
-      <c r="F3" s="46">
-        <v>4</v>
-      </c>
-      <c r="G3" s="46">
-        <v>5</v>
-      </c>
-      <c r="H3" s="46">
-        <v>6</v>
-      </c>
-      <c r="I3" s="46">
-        <v>7</v>
-      </c>
-      <c r="J3" s="46">
-        <v>8</v>
-      </c>
-      <c r="K3" s="46">
-        <v>9</v>
-      </c>
-      <c r="L3" s="46">
-        <v>10</v>
-      </c>
-      <c r="M3" s="46">
-        <v>11</v>
-      </c>
-      <c r="N3" s="46">
-        <v>12</v>
-      </c>
-      <c r="O3" s="46">
-        <v>13</v>
-      </c>
-      <c r="P3" s="46">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="46">
-        <v>15</v>
-      </c>
-      <c r="R3" s="46">
-        <v>16</v>
-      </c>
-      <c r="S3" s="46">
-        <v>17</v>
-      </c>
-      <c r="T3" s="46">
-        <v>18</v>
-      </c>
-      <c r="U3" s="51">
-        <v>19</v>
-      </c>
-      <c r="V3" s="46">
-        <v>20</v>
-      </c>
-      <c r="W3" s="46">
-        <v>21</v>
-      </c>
-      <c r="X3" s="46">
-        <v>22</v>
-      </c>
-      <c r="Y3" s="46">
+      <c r="AB3" s="23">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="23">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="23">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+    </row>
+    <row r="4" spans="2:41" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="46">
-        <v>24</v>
-      </c>
-      <c r="AA3" s="46">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="AF4" s="22"/>
+    </row>
+    <row r="5" spans="2:41" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="17"/>
+    </row>
+    <row r="6" spans="2:41" x14ac:dyDescent="0.15">
+      <c r="B6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="46">
-        <v>26</v>
-      </c>
-      <c r="AC3" s="46">
-        <v>27</v>
-      </c>
-      <c r="AD3" s="46">
-        <v>28</v>
-      </c>
-      <c r="AE3" s="46">
-        <v>29</v>
-      </c>
-      <c r="AF3" s="47">
-        <v>30</v>
-      </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-    </row>
-    <row r="4" spans="2:41" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="45"/>
-    </row>
-    <row r="5" spans="2:41" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="34"/>
-    </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="B6" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
     </row>
     <row r="7" spans="2:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="63"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-    </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="I8" s="32"/>
-    </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="L13" s="35"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C1:U2"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="X6:X7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="W6:W7"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C1:U2"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
